--- a/projects/project-7-final/data/poverty_socdem_2017.xlsx
+++ b/projects/project-7-final/data/poverty_socdem_2017.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">            Ненецкий автономный округ (Архангельская область)</t>
   </si>
   <si>
-    <t xml:space="preserve">            Архангельская область (без АО)</t>
+    <t xml:space="preserve">            Архангельская область (кроме Ненецкого автономного округа)</t>
   </si>
   <si>
     <t xml:space="preserve">        Вологодская область</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">            Ямало-Ненецкий автономный округ (Тюменская область)</t>
   </si>
   <si>
-    <t xml:space="preserve">            Тюменская область (без АО)</t>
+    <t xml:space="preserve">            Тюменская область (кроме Ханты-Мансийского автономного округа-Югры и Ямало-Ненецкого автономного округа)</t>
   </si>
   <si>
     <t xml:space="preserve">        Челябинская область</t>
